--- a/Assets/ArtRes/Excel/MissionData.xlsx
+++ b/Assets/ArtRes/Excel/MissionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\YM\Assets\ArtRes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\YM\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFAE274-11EA-44C3-A033-E866B3B4860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2603BC-61A9-441B-A9E7-E4B4AD445105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3750" windowWidth="35145" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MissionData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,12 @@
   <si>
     <t>触发任务需要的条件（触发任务的需求）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InActive</t>
+  </si>
+  <si>
+    <t>Underway</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,8 +588,8 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
@@ -608,8 +614,8 @@
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
